--- a/bin/Cartera_bonos.xlsx
+++ b/bin/Cartera_bonos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Python Script\Github\IBNR-NIIF-17\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DC1DB3-B283-455A-B12E-6935259A9D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF779C49-33A6-4A68-B344-B41AB6F3A4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{A73F7BBB-CAB7-4C9E-9898-0D8223564A15}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A73F7BBB-CAB7-4C9E-9898-0D8223564A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>Settelment</t>
   </si>
   <si>
-    <t>Dirty Price</t>
-  </si>
-  <si>
     <t>Day Count</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Semestral</t>
+  </si>
+  <si>
+    <t>Valor Técnico</t>
   </si>
 </sst>
 </file>
@@ -180,6 +180,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -297,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -322,6 +323,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127A3706-5D91-4999-A2F6-30A4556D9603}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,10 +641,13 @@
     <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
     <col min="8" max="12" width="8.88671875" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -648,12 +657,6 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
@@ -666,14 +669,11 @@
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>8</v>
@@ -682,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -692,17 +692,11 @@
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5">
-        <v>50770</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="5">
         <v>45565</v>
@@ -710,9 +704,6 @@
       <c r="H2" s="4">
         <v>100</v>
       </c>
-      <c r="I2" s="4">
-        <v>16340</v>
-      </c>
       <c r="J2" s="5">
         <v>45471</v>
       </c>
@@ -726,7 +717,7 @@
         <v>6.6996882730528617E-2</v>
       </c>
       <c r="N2">
-        <f>D2-J2</f>
+        <f>T18-J2</f>
         <v>5299</v>
       </c>
     </row>
@@ -737,17 +728,11 @@
       <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="10">
-        <v>48944</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="10">
         <v>45657</v>
@@ -755,9 +740,6 @@
       <c r="H3" s="9">
         <v>95</v>
       </c>
-      <c r="I3" s="9">
-        <v>31250</v>
-      </c>
       <c r="J3" s="10">
         <v>45471</v>
       </c>
@@ -771,7 +753,7 @@
         <v>9.5447733191835298E-3</v>
       </c>
       <c r="N3">
-        <f>D3-J3</f>
+        <f>T19-J3</f>
         <v>3473</v>
       </c>
     </row>
@@ -782,17 +764,11 @@
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5">
-        <v>53327</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="5">
         <v>45657</v>
@@ -800,9 +776,6 @@
       <c r="H4" s="4">
         <v>100</v>
       </c>
-      <c r="I4" s="4">
-        <v>20230</v>
-      </c>
       <c r="J4" s="5">
         <v>45471</v>
       </c>
@@ -816,7 +789,7 @@
         <v>5.24930618608049E-2</v>
       </c>
       <c r="N4">
-        <f>D4-J4</f>
+        <f>T20-J4</f>
         <v>7856</v>
       </c>
     </row>
@@ -827,12 +800,6 @@
       <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="10">
-        <v>45838</v>
-      </c>
       <c r="E5" s="9" t="s">
         <v>22</v>
       </c>
@@ -845,9 +812,6 @@
       <c r="H5" s="9">
         <v>100</v>
       </c>
-      <c r="I5" s="9">
-        <v>158.69999999999999</v>
-      </c>
       <c r="J5" s="10">
         <v>45471</v>
       </c>
@@ -861,7 +825,7 @@
         <v>-0.1128680621204154</v>
       </c>
       <c r="N5">
-        <f>D5-J5</f>
+        <f>T21-J5</f>
         <v>367</v>
       </c>
     </row>
@@ -872,12 +836,6 @@
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5">
-        <v>46203</v>
-      </c>
       <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
@@ -890,9 +848,6 @@
       <c r="H6" s="4">
         <v>100</v>
       </c>
-      <c r="I6" s="4">
-        <v>181.75</v>
-      </c>
       <c r="J6" s="5">
         <v>45471</v>
       </c>
@@ -906,7 +861,7 @@
         <v>-6.1065030510503382E-2</v>
       </c>
       <c r="N6">
-        <f>D6-J6</f>
+        <f>T22-J6</f>
         <v>732</v>
       </c>
     </row>
@@ -917,12 +872,6 @@
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="10">
-        <v>46568</v>
-      </c>
       <c r="E7" s="9" t="s">
         <v>22</v>
       </c>
@@ -935,9 +884,6 @@
       <c r="H7" s="9">
         <v>100</v>
       </c>
-      <c r="I7" s="9">
-        <v>170</v>
-      </c>
       <c r="J7" s="10">
         <v>45471</v>
       </c>
@@ -951,7 +897,7 @@
         <v>-1.9956101311708219E-2</v>
       </c>
       <c r="N7">
-        <f>D7-J7</f>
+        <f>T23-J7</f>
         <v>1097</v>
       </c>
     </row>
@@ -962,12 +908,6 @@
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="5">
-        <v>46934</v>
-      </c>
       <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
@@ -980,9 +920,6 @@
       <c r="H8" s="4">
         <v>100</v>
       </c>
-      <c r="I8" s="4">
-        <v>148</v>
-      </c>
       <c r="J8" s="5">
         <v>45471</v>
       </c>
@@ -996,7 +933,7 @@
         <v>1.8022380829635139E-2</v>
       </c>
       <c r="N8">
-        <f>D8-J8</f>
+        <f>T24-J8</f>
         <v>1463</v>
       </c>
     </row>
@@ -1007,12 +944,6 @@
       <c r="B9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="10">
-        <v>46006</v>
-      </c>
       <c r="E9" s="9" t="s">
         <v>22</v>
       </c>
@@ -1025,9 +956,6 @@
       <c r="H9" s="9">
         <v>100</v>
       </c>
-      <c r="I9" s="9">
-        <v>136.75</v>
-      </c>
       <c r="J9" s="10">
         <v>45471</v>
       </c>
@@ -1041,7 +969,7 @@
         <v>-7.8124402058578957E-2</v>
       </c>
       <c r="N9">
-        <f>D9-J9</f>
+        <f>T25-J9</f>
         <v>535</v>
       </c>
     </row>
@@ -1052,12 +980,6 @@
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="5">
-        <v>46371</v>
-      </c>
       <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1070,9 +992,6 @@
       <c r="H10" s="4">
         <v>100</v>
       </c>
-      <c r="I10" s="4">
-        <v>128</v>
-      </c>
       <c r="J10" s="5">
         <v>45471</v>
       </c>
@@ -1086,7 +1005,7 @@
         <v>-3.6358616677768962E-2</v>
       </c>
       <c r="N10">
-        <f>D10-J10</f>
+        <f>T26-J10</f>
         <v>900</v>
       </c>
     </row>
@@ -1097,12 +1016,6 @@
       <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="10">
-        <v>46736</v>
-      </c>
       <c r="E11" s="9" t="s">
         <v>22</v>
       </c>
@@ -1115,9 +1028,6 @@
       <c r="H11" s="9">
         <v>100</v>
       </c>
-      <c r="I11" s="9">
-        <v>115.5</v>
-      </c>
       <c r="J11" s="10">
         <v>45471</v>
       </c>
@@ -1131,8 +1041,129 @@
         <v>6.0711695456237003E-3</v>
       </c>
       <c r="N11">
-        <f>D11-J11</f>
+        <f>T27-J11</f>
         <v>1265</v>
+      </c>
+    </row>
+    <row r="17" spans="18:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="R17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="R18" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="17">
+        <v>16340</v>
+      </c>
+      <c r="T18" s="18">
+        <v>50770</v>
+      </c>
+    </row>
+    <row r="19" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="R19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="S19" s="17">
+        <v>31250</v>
+      </c>
+      <c r="T19" s="18">
+        <v>48944</v>
+      </c>
+    </row>
+    <row r="20" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="R20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" s="17">
+        <v>20230</v>
+      </c>
+      <c r="T20" s="18">
+        <v>53327</v>
+      </c>
+    </row>
+    <row r="21" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="R21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" s="17">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="T21" s="18">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="22" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="R22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="17">
+        <v>181.75</v>
+      </c>
+      <c r="T22" s="18">
+        <v>46203</v>
+      </c>
+    </row>
+    <row r="23" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="R23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" s="17">
+        <v>170</v>
+      </c>
+      <c r="T23" s="18">
+        <v>46568</v>
+      </c>
+    </row>
+    <row r="24" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="R24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="S24" s="17">
+        <v>148</v>
+      </c>
+      <c r="T24" s="18">
+        <v>46934</v>
+      </c>
+    </row>
+    <row r="25" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="R25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="S25" s="17">
+        <v>136.75</v>
+      </c>
+      <c r="T25" s="18">
+        <v>46006</v>
+      </c>
+    </row>
+    <row r="26" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="R26" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="S26" s="17">
+        <v>128</v>
+      </c>
+      <c r="T26" s="18">
+        <v>46371</v>
+      </c>
+    </row>
+    <row r="27" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="R27" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S27" s="17">
+        <v>115.5</v>
+      </c>
+      <c r="T27" s="18">
+        <v>46736</v>
       </c>
     </row>
   </sheetData>
@@ -1161,13 +1192,13 @@
         <v>30</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">

--- a/bin/Cartera_bonos.xlsx
+++ b/bin/Cartera_bonos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Python Script\Github\IBNR-NIIF-17\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF779C49-33A6-4A68-B344-B41AB6F3A4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D34A723-B216-46D4-949B-9E364B339C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A73F7BBB-CAB7-4C9E-9898-0D8223564A15}"/>
   </bookViews>
@@ -323,11 +323,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,7 +633,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,8 +646,8 @@
     <col min="7" max="7" width="11.5546875" customWidth="1"/>
     <col min="8" max="12" width="8.88671875" customWidth="1"/>
     <col min="18" max="18" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.88671875" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -717,7 +717,7 @@
         <v>6.6996882730528617E-2</v>
       </c>
       <c r="N2">
-        <f>T18-J2</f>
+        <f t="shared" ref="N2:N11" si="0">T18-J2</f>
         <v>5299</v>
       </c>
     </row>
@@ -753,7 +753,7 @@
         <v>9.5447733191835298E-3</v>
       </c>
       <c r="N3">
-        <f>T19-J3</f>
+        <f t="shared" si="0"/>
         <v>3473</v>
       </c>
     </row>
@@ -789,7 +789,7 @@
         <v>5.24930618608049E-2</v>
       </c>
       <c r="N4">
-        <f>T20-J4</f>
+        <f t="shared" si="0"/>
         <v>7856</v>
       </c>
     </row>
@@ -825,7 +825,7 @@
         <v>-0.1128680621204154</v>
       </c>
       <c r="N5">
-        <f>T21-J5</f>
+        <f t="shared" si="0"/>
         <v>367</v>
       </c>
     </row>
@@ -861,7 +861,7 @@
         <v>-6.1065030510503382E-2</v>
       </c>
       <c r="N6">
-        <f>T22-J6</f>
+        <f t="shared" si="0"/>
         <v>732</v>
       </c>
     </row>
@@ -897,7 +897,7 @@
         <v>-1.9956101311708219E-2</v>
       </c>
       <c r="N7">
-        <f>T23-J7</f>
+        <f t="shared" si="0"/>
         <v>1097</v>
       </c>
     </row>
@@ -933,7 +933,7 @@
         <v>1.8022380829635139E-2</v>
       </c>
       <c r="N8">
-        <f>T24-J8</f>
+        <f t="shared" si="0"/>
         <v>1463</v>
       </c>
     </row>
@@ -969,7 +969,7 @@
         <v>-7.8124402058578957E-2</v>
       </c>
       <c r="N9">
-        <f>T25-J9</f>
+        <f t="shared" si="0"/>
         <v>535</v>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
         <v>-3.6358616677768962E-2</v>
       </c>
       <c r="N10">
-        <f>T26-J10</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
     </row>
@@ -1041,11 +1041,11 @@
         <v>6.0711695456237003E-3</v>
       </c>
       <c r="N11">
-        <f>T27-J11</f>
+        <f t="shared" si="0"/>
         <v>1265</v>
       </c>
     </row>
-    <row r="17" spans="18:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R17" s="16" t="s">
         <v>30</v>
       </c>
